--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>239.142265503531</v>
+        <v>241.2872163333334</v>
       </c>
       <c r="H2">
-        <v>239.142265503531</v>
+        <v>723.8616490000001</v>
       </c>
       <c r="I2">
-        <v>0.8191136611855496</v>
+        <v>0.8139476876902633</v>
       </c>
       <c r="J2">
-        <v>0.8191136611855496</v>
+        <v>0.8139476876902633</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>53875.96290610666</v>
+        <v>55395.84127222077</v>
       </c>
       <c r="R2">
-        <v>53875.96290610666</v>
+        <v>498562.5714499869</v>
       </c>
       <c r="S2">
-        <v>0.4135604846220411</v>
+        <v>0.4096751214094693</v>
       </c>
       <c r="T2">
-        <v>0.4135604846220411</v>
+        <v>0.4096751214094693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>239.142265503531</v>
+        <v>241.2872163333334</v>
       </c>
       <c r="H3">
-        <v>239.142265503531</v>
+        <v>723.8616490000001</v>
       </c>
       <c r="I3">
-        <v>0.8191136611855496</v>
+        <v>0.8139476876902633</v>
       </c>
       <c r="J3">
-        <v>0.8191136611855496</v>
+        <v>0.8139476876902633</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>32385.68830711592</v>
+        <v>32749.50842997082</v>
       </c>
       <c r="R3">
-        <v>32385.68830711592</v>
+        <v>294745.5758697374</v>
       </c>
       <c r="S3">
-        <v>0.2485977090460713</v>
+        <v>0.2421961384468902</v>
       </c>
       <c r="T3">
-        <v>0.2485977090460713</v>
+        <v>0.2421961384468902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>239.142265503531</v>
+        <v>241.2872163333334</v>
       </c>
       <c r="H4">
-        <v>239.142265503531</v>
+        <v>723.8616490000001</v>
       </c>
       <c r="I4">
-        <v>0.8191136611855496</v>
+        <v>0.8139476876902633</v>
       </c>
       <c r="J4">
-        <v>0.8191136611855496</v>
+        <v>0.8139476876902633</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>20307.7106757309</v>
+        <v>21771.70464556365</v>
       </c>
       <c r="R4">
-        <v>20307.7106757309</v>
+        <v>195945.3418100728</v>
       </c>
       <c r="S4">
-        <v>0.1558852262790376</v>
+        <v>0.1610107462784422</v>
       </c>
       <c r="T4">
-        <v>0.1558852262790376</v>
+        <v>0.1610107462784422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>239.142265503531</v>
+        <v>241.2872163333334</v>
       </c>
       <c r="H5">
-        <v>239.142265503531</v>
+        <v>723.8616490000001</v>
       </c>
       <c r="I5">
-        <v>0.8191136611855496</v>
+        <v>0.8139476876902633</v>
       </c>
       <c r="J5">
-        <v>0.8191136611855496</v>
+        <v>0.8139476876902633</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>139.4240489714376</v>
+        <v>144.1003449025117</v>
       </c>
       <c r="R5">
-        <v>139.4240489714376</v>
+        <v>1296.903104122605</v>
       </c>
       <c r="S5">
-        <v>0.00107024123839946</v>
+        <v>0.001065681555461577</v>
       </c>
       <c r="T5">
-        <v>0.00107024123839946</v>
+        <v>0.001065681555461577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.5173178653431</v>
+        <v>42.36118633333333</v>
       </c>
       <c r="H6">
-        <v>40.5173178653431</v>
+        <v>127.083559</v>
       </c>
       <c r="I6">
-        <v>0.1387805225823197</v>
+        <v>0.1428993636206566</v>
       </c>
       <c r="J6">
-        <v>0.1387805225823197</v>
+        <v>0.1428993636206566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>9128.079094558576</v>
+        <v>9725.478166163906</v>
       </c>
       <c r="R6">
-        <v>9128.079094558576</v>
+        <v>87529.30349547516</v>
       </c>
       <c r="S6">
-        <v>0.07006859108194392</v>
+        <v>0.07192392708523289</v>
       </c>
       <c r="T6">
-        <v>0.07006859108194392</v>
+        <v>0.07192392708523289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.5173178653431</v>
+        <v>42.36118633333333</v>
       </c>
       <c r="H7">
-        <v>40.5173178653431</v>
+        <v>127.083559</v>
       </c>
       <c r="I7">
-        <v>0.1387805225823197</v>
+        <v>0.1428993636206566</v>
       </c>
       <c r="J7">
-        <v>0.1387805225823197</v>
+        <v>0.1428993636206566</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>5487.031849700221</v>
+        <v>5749.612640109896</v>
       </c>
       <c r="R7">
-        <v>5487.031849700221</v>
+        <v>51746.51376098907</v>
       </c>
       <c r="S7">
-        <v>0.04211933167400318</v>
+        <v>0.04252075972308837</v>
       </c>
       <c r="T7">
-        <v>0.04211933167400318</v>
+        <v>0.04252075972308837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.5173178653431</v>
+        <v>42.36118633333333</v>
       </c>
       <c r="H8">
-        <v>40.5173178653431</v>
+        <v>127.083559</v>
       </c>
       <c r="I8">
-        <v>0.1387805225823197</v>
+        <v>0.1428993636206566</v>
       </c>
       <c r="J8">
-        <v>0.1387805225823197</v>
+        <v>0.1428993636206566</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>3440.688189657806</v>
+        <v>3822.312890422326</v>
       </c>
       <c r="R8">
-        <v>3440.688189657806</v>
+        <v>34400.81601380094</v>
       </c>
       <c r="S8">
-        <v>0.02641127134243629</v>
+        <v>0.0282675822135045</v>
       </c>
       <c r="T8">
-        <v>0.02641127134243629</v>
+        <v>0.0282675822135045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.5173178653431</v>
+        <v>42.36118633333333</v>
       </c>
       <c r="H9">
-        <v>40.5173178653431</v>
+        <v>127.083559</v>
       </c>
       <c r="I9">
-        <v>0.1387805225823197</v>
+        <v>0.1428993636206566</v>
       </c>
       <c r="J9">
-        <v>0.1387805225823197</v>
+        <v>0.1428993636206566</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N9">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q9">
-        <v>23.62229235536573</v>
+        <v>25.29873589606166</v>
       </c>
       <c r="R9">
-        <v>23.62229235536573</v>
+        <v>227.688623064555</v>
       </c>
       <c r="S9">
-        <v>0.0001813284839362245</v>
+        <v>0.0001870945988308784</v>
       </c>
       <c r="T9">
-        <v>0.0001813284839362245</v>
+        <v>0.0001870945988308784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.25766515518861</v>
+        <v>1.281292333333333</v>
       </c>
       <c r="H10">
-        <v>1.25766515518861</v>
+        <v>3.843877</v>
       </c>
       <c r="I10">
-        <v>0.004307773482211257</v>
+        <v>0.004322255226862814</v>
       </c>
       <c r="J10">
-        <v>0.004307773482211257</v>
+        <v>0.004322255226862814</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N10">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q10">
-        <v>283.3372892348215</v>
+        <v>294.1650527502115</v>
       </c>
       <c r="R10">
-        <v>283.3372892348215</v>
+        <v>2647.485474751904</v>
       </c>
       <c r="S10">
-        <v>0.002174942225193465</v>
+        <v>0.002175472037831454</v>
       </c>
       <c r="T10">
-        <v>0.002174942225193465</v>
+        <v>0.002175472037831454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.25766515518861</v>
+        <v>1.281292333333333</v>
       </c>
       <c r="H11">
-        <v>1.25766515518861</v>
+        <v>3.843877</v>
       </c>
       <c r="I11">
-        <v>0.004307773482211257</v>
+        <v>0.004322255226862814</v>
       </c>
       <c r="J11">
-        <v>0.004307773482211257</v>
+        <v>0.004322255226862814</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N11">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q11">
-        <v>170.3184990110312</v>
+        <v>173.9076554051158</v>
       </c>
       <c r="R11">
-        <v>170.3184990110312</v>
+        <v>1565.168898646043</v>
       </c>
       <c r="S11">
-        <v>0.001307391964647687</v>
+        <v>0.001286118925282111</v>
       </c>
       <c r="T11">
-        <v>0.001307391964647687</v>
+        <v>0.001286118925282111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.25766515518861</v>
+        <v>1.281292333333333</v>
       </c>
       <c r="H12">
-        <v>1.25766515518861</v>
+        <v>3.843877</v>
       </c>
       <c r="I12">
-        <v>0.004307773482211257</v>
+        <v>0.004322255226862814</v>
       </c>
       <c r="J12">
-        <v>0.004307773482211257</v>
+        <v>0.004322255226862814</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N12">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q12">
-        <v>106.7996075254267</v>
+        <v>115.6129142267561</v>
       </c>
       <c r="R12">
-        <v>106.7996075254267</v>
+        <v>1040.516228040805</v>
       </c>
       <c r="S12">
-        <v>0.00081981082217749</v>
+        <v>0.0008550052419927823</v>
       </c>
       <c r="T12">
-        <v>0.00081981082217749</v>
+        <v>0.0008550052419927823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.25766515518861</v>
+        <v>1.281292333333333</v>
       </c>
       <c r="H13">
-        <v>1.25766515518861</v>
+        <v>3.843877</v>
       </c>
       <c r="I13">
-        <v>0.004307773482211257</v>
+        <v>0.004322255226862814</v>
       </c>
       <c r="J13">
-        <v>0.004307773482211257</v>
+        <v>0.004322255226862814</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N13">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O13">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P13">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q13">
-        <v>0.7332403906832536</v>
+        <v>0.7652070008516666</v>
       </c>
       <c r="R13">
-        <v>0.7332403906832536</v>
+        <v>6.886863007665</v>
       </c>
       <c r="S13">
-        <v>5.628470192614414E-06</v>
+        <v>5.659021756466864E-06</v>
       </c>
       <c r="T13">
-        <v>5.628470192614414E-06</v>
+        <v>5.659021756466864E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.31552071221148</v>
+        <v>1.328211</v>
       </c>
       <c r="H14">
-        <v>1.31552071221148</v>
+        <v>3.984633</v>
       </c>
       <c r="I14">
-        <v>0.004505941200632545</v>
+        <v>0.004480528594276053</v>
       </c>
       <c r="J14">
-        <v>0.004505941200632545</v>
+        <v>0.004480528594276054</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N14">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O14">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P14">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q14">
-        <v>296.3714713670061</v>
+        <v>304.9368584466239</v>
       </c>
       <c r="R14">
-        <v>296.3714713670061</v>
+        <v>2744.431726019616</v>
       </c>
       <c r="S14">
-        <v>0.002274994686225716</v>
+        <v>0.002255133989074171</v>
       </c>
       <c r="T14">
-        <v>0.002274994686225716</v>
+        <v>0.002255133989074171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.31552071221148</v>
+        <v>1.328211</v>
       </c>
       <c r="H15">
-        <v>1.31552071221148</v>
+        <v>3.984633</v>
       </c>
       <c r="I15">
-        <v>0.004505941200632545</v>
+        <v>0.004480528594276053</v>
       </c>
       <c r="J15">
-        <v>0.004505941200632545</v>
+        <v>0.004480528594276054</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N15">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O15">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P15">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q15">
-        <v>178.1535508059619</v>
+        <v>180.2758471927829</v>
       </c>
       <c r="R15">
-        <v>178.1535508059619</v>
+        <v>1622.482624735047</v>
       </c>
       <c r="S15">
-        <v>0.001367535071936505</v>
+        <v>0.001333214333237935</v>
       </c>
       <c r="T15">
-        <v>0.001367535071936505</v>
+        <v>0.001333214333237935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.31552071221148</v>
+        <v>1.328211</v>
       </c>
       <c r="H16">
-        <v>1.31552071221148</v>
+        <v>3.984633</v>
       </c>
       <c r="I16">
-        <v>0.004505941200632545</v>
+        <v>0.004480528594276053</v>
       </c>
       <c r="J16">
-        <v>0.004505941200632545</v>
+        <v>0.004480528594276054</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N16">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O16">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P16">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q16">
-        <v>111.7126408218615</v>
+        <v>119.846455350705</v>
       </c>
       <c r="R16">
-        <v>111.7126408218615</v>
+        <v>1078.618098156345</v>
       </c>
       <c r="S16">
-        <v>0.000857524049402381</v>
+        <v>0.0008863140268061193</v>
       </c>
       <c r="T16">
-        <v>0.000857524049402381</v>
+        <v>0.0008863140268061195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.31552071221148</v>
+        <v>1.328211</v>
       </c>
       <c r="H17">
-        <v>1.31552071221148</v>
+        <v>3.984633</v>
       </c>
       <c r="I17">
-        <v>0.004505941200632545</v>
+        <v>0.004480528594276053</v>
       </c>
       <c r="J17">
-        <v>0.004505941200632545</v>
+        <v>0.004480528594276054</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N17">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O17">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P17">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q17">
-        <v>0.7669711743180158</v>
+        <v>0.7932275323649998</v>
       </c>
       <c r="R17">
-        <v>0.7669711743180158</v>
+        <v>7.139047791284999</v>
       </c>
       <c r="S17">
-        <v>5.887393067941665E-06</v>
+        <v>5.866245157827846E-06</v>
       </c>
       <c r="T17">
-        <v>5.887393067941665E-06</v>
+        <v>5.866245157827847E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.71971164093015</v>
+        <v>10.18278666666667</v>
       </c>
       <c r="H18">
-        <v>9.71971164093015</v>
+        <v>30.54836</v>
       </c>
       <c r="I18">
-        <v>0.03329210154928697</v>
+        <v>0.03435016486794112</v>
       </c>
       <c r="J18">
-        <v>0.03329210154928697</v>
+        <v>0.03435016486794112</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N18">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O18">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P18">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q18">
-        <v>2189.737655626056</v>
+        <v>2337.811519679858</v>
       </c>
       <c r="R18">
-        <v>2189.737655626056</v>
+        <v>21040.30367711872</v>
       </c>
       <c r="S18">
-        <v>0.01680877551337831</v>
+        <v>0.01728908156572358</v>
       </c>
       <c r="T18">
-        <v>0.01680877551337831</v>
+        <v>0.01728908156572358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.71971164093015</v>
+        <v>10.18278666666667</v>
       </c>
       <c r="H19">
-        <v>9.71971164093015</v>
+        <v>30.54836</v>
       </c>
       <c r="I19">
-        <v>0.03329210154928697</v>
+        <v>0.03435016486794112</v>
       </c>
       <c r="J19">
-        <v>0.03329210154928697</v>
+        <v>0.03435016486794112</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N19">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O19">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P19">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q19">
-        <v>1316.285730485238</v>
+        <v>1382.092523790804</v>
       </c>
       <c r="R19">
-        <v>1316.285730485238</v>
+        <v>12438.83271411724</v>
       </c>
       <c r="S19">
-        <v>0.01010401921816697</v>
+        <v>0.01022114493578515</v>
       </c>
       <c r="T19">
-        <v>0.01010401921816697</v>
+        <v>0.01022114493578515</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.71971164093015</v>
+        <v>10.18278666666667</v>
       </c>
       <c r="H20">
-        <v>9.71971164093015</v>
+        <v>30.54836</v>
       </c>
       <c r="I20">
-        <v>0.03329210154928697</v>
+        <v>0.03435016486794112</v>
       </c>
       <c r="J20">
-        <v>0.03329210154928697</v>
+        <v>0.03435016486794112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N20">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O20">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P20">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q20">
-        <v>825.3877307716175</v>
+        <v>918.8079963141557</v>
       </c>
       <c r="R20">
-        <v>825.3877307716175</v>
+        <v>8269.2719668274</v>
       </c>
       <c r="S20">
-        <v>0.006335807872870637</v>
+        <v>0.006794964546025441</v>
       </c>
       <c r="T20">
-        <v>0.006335807872870637</v>
+        <v>0.006794964546025441</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.71971164093015</v>
+        <v>10.18278666666667</v>
       </c>
       <c r="H21">
-        <v>9.71971164093015</v>
+        <v>30.54836</v>
       </c>
       <c r="I21">
-        <v>0.03329210154928697</v>
+        <v>0.03435016486794112</v>
       </c>
       <c r="J21">
-        <v>0.03329210154928697</v>
+        <v>0.03435016486794112</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N21">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O21">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P21">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q21">
-        <v>5.66675885987744</v>
+        <v>6.081312939133332</v>
       </c>
       <c r="R21">
-        <v>5.66675885987744</v>
+        <v>54.73181645219999</v>
       </c>
       <c r="S21">
-        <v>4.349894487104428E-05</v>
+        <v>4.497382040694385E-05</v>
       </c>
       <c r="T21">
-        <v>4.349894487104428E-05</v>
+        <v>4.497382040694385E-05</v>
       </c>
     </row>
   </sheetData>
